--- a/OnlineExaminationSystem.Web/wwwroot/Import/题库导入.xlsx
+++ b/OnlineExaminationSystem.Web/wwwroot/Import/题库导入.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>题干</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,35 +56,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>选择题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>登高作业达到（   ）必须系安全带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语文</t>
+  </si>
+  <si>
+    <t>填空题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登高作业达到（   ）必须系安全带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/questionImg/12.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片测试题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问答题测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问答题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,18 +481,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.88671875" customWidth="1"/>
+    <col min="13" max="13" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,45 +516,126 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2">
+      <c r="K4">
         <v>5</v>
       </c>
-      <c r="J2">
+      <c r="L4">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
